--- a/SinhVien_DungCauTruc.xlsx
+++ b/SinhVien_DungCauTruc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/KTX_PTTKPM_ADMIN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\KTX_PTTKPM_ADMIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA2EB39-AFB0-5845-82FF-1B28BB2CF9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72FDCEB-470C-4948-BFB2-4AEE84C0BB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22560" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>student_code</t>
   </si>
@@ -140,17 +140,38 @@
   </si>
   <si>
     <t>0987654324</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>3.9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,29 +179,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFCE9178"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -199,37 +206,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -531,15 +522,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="52.5" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
@@ -547,237 +538,279 @@
     <col min="7" max="8" width="15.1640625" customWidth="1"/>
     <col min="9" max="9" width="11.5" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>22010020</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>1</v>
       </c>
-      <c r="K2">
-        <v>3.5</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N2" s="1">
+        <v>22010020</v>
+      </c>
+      <c r="O2" s="1">
+        <v>123</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>22010021</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="K3">
-        <v>3.8</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N3" s="1">
+        <v>22010021</v>
+      </c>
+      <c r="O3" s="1">
+        <v>123</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>22010022</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>987654333</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>2.9</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="K4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N4" s="1">
+        <v>22010022</v>
+      </c>
+      <c r="O4" s="1">
+        <v>123</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>22010023</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="K5">
-        <v>2.9</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="N5" s="1">
+        <v>22010023</v>
+      </c>
+      <c r="O5" s="1">
+        <v>123</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>22010024</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6">
-        <v>2.9</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="N6" s="1">
+        <v>22010024</v>
+      </c>
+      <c r="O6" s="1">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
